--- a/Executive_English_Now/class-attendance-monthly.xlsx
+++ b/Executive_English_Now/class-attendance-monthly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068"/>
   </bookViews>
   <sheets>
     <sheet name="Advanced" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>Teacher</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>Advanced</t>
+  </si>
+  <si>
+    <t>Francisco Valdes</t>
+  </si>
+  <si>
+    <t>Girogio Zoppi</t>
+  </si>
+  <si>
+    <t>Felipe Darrigrande</t>
   </si>
 </sst>
 </file>
@@ -775,27 +784,69 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -807,72 +858,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -880,175 +889,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1711,8 +1552,8 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -1726,87 +1567,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="65" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
     </row>
     <row r="2" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="67" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="45" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="67" t="s">
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -1820,85 +1661,85 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="45" t="s">
+      <c r="Z3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="68">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="61">
         <v>2017</v>
       </c>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="55" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Sa</v>
@@ -2023,7 +1864,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>M</v>
       </c>
-      <c r="AI6" s="56"/>
+      <c r="AI6" s="49"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -2158,14 +1999,16 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42947</v>
       </c>
-      <c r="AI7" s="57"/>
+      <c r="AI7" s="50"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -2175,14 +2018,18 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="M8" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="T8" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
@@ -2197,9 +2044,9 @@
       <c r="AF8" s="22"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="23"/>
-      <c r="AI8" s="58" t="str">
+      <c r="AI8" s="42">
         <f>IF(C8="","", COUNTA(D8:AH8))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AJ8" s="5"/>
     </row>
@@ -2207,7 +2054,9 @@
       <c r="B9" s="35">
         <v>2</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -2217,7 +2066,9 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="M9" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -2239,9 +2090,9 @@
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
       <c r="AH9" s="23"/>
-      <c r="AI9" s="58" t="str">
+      <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AJ9" s="5"/>
     </row>
@@ -2249,7 +2100,9 @@
       <c r="B10" s="35">
         <v>3</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -2259,14 +2112,20 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="M10" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="Q10" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="T10" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
@@ -2281,9 +2140,9 @@
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="23"/>
-      <c r="AI10" s="58" t="str">
+      <c r="AI10" s="42">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AJ10" s="5"/>
     </row>
@@ -2323,7 +2182,7 @@
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="23"/>
-      <c r="AI11" s="58" t="str">
+      <c r="AI11" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2365,7 +2224,7 @@
       <c r="AF12" s="22"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="23"/>
-      <c r="AI12" s="58" t="str">
+      <c r="AI12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2407,7 +2266,7 @@
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
       <c r="AH13" s="23"/>
-      <c r="AI13" s="58" t="str">
+      <c r="AI13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2449,7 +2308,7 @@
       <c r="AF14" s="22"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="23"/>
-      <c r="AI14" s="58" t="str">
+      <c r="AI14" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2491,7 +2350,7 @@
       <c r="AF15" s="22"/>
       <c r="AG15" s="22"/>
       <c r="AH15" s="23"/>
-      <c r="AI15" s="58" t="str">
+      <c r="AI15" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2533,7 +2392,7 @@
       <c r="AF16" s="22"/>
       <c r="AG16" s="22"/>
       <c r="AH16" s="23"/>
-      <c r="AI16" s="58" t="str">
+      <c r="AI16" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2575,7 +2434,7 @@
       <c r="AF17" s="22"/>
       <c r="AG17" s="22"/>
       <c r="AH17" s="23"/>
-      <c r="AI17" s="58" t="str">
+      <c r="AI17" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2617,7 +2476,7 @@
       <c r="AF18" s="22"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="23"/>
-      <c r="AI18" s="58" t="str">
+      <c r="AI18" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2659,7 +2518,7 @@
       <c r="AF19" s="22"/>
       <c r="AG19" s="22"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="58" t="str">
+      <c r="AI19" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2701,7 +2560,7 @@
       <c r="AF20" s="22"/>
       <c r="AG20" s="22"/>
       <c r="AH20" s="23"/>
-      <c r="AI20" s="58" t="str">
+      <c r="AI20" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2743,7 +2602,7 @@
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="23"/>
-      <c r="AI21" s="58" t="str">
+      <c r="AI21" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2785,7 +2644,7 @@
       <c r="AF22" s="22"/>
       <c r="AG22" s="22"/>
       <c r="AH22" s="23"/>
-      <c r="AI22" s="58" t="str">
+      <c r="AI22" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2827,7 +2686,7 @@
       <c r="AF23" s="22"/>
       <c r="AG23" s="22"/>
       <c r="AH23" s="23"/>
-      <c r="AI23" s="58" t="str">
+      <c r="AI23" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2869,7 +2728,7 @@
       <c r="AF24" s="22"/>
       <c r="AG24" s="22"/>
       <c r="AH24" s="23"/>
-      <c r="AI24" s="58" t="str">
+      <c r="AI24" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2911,7 +2770,7 @@
       <c r="AF25" s="22"/>
       <c r="AG25" s="22"/>
       <c r="AH25" s="23"/>
-      <c r="AI25" s="58" t="str">
+      <c r="AI25" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2953,7 +2812,7 @@
       <c r="AF26" s="22"/>
       <c r="AG26" s="22"/>
       <c r="AH26" s="23"/>
-      <c r="AI26" s="58" t="str">
+      <c r="AI26" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2964,214 +2823,214 @@
         <v>20</v>
       </c>
       <c r="C27" s="28"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="58" t="str">
+      <c r="D27" s="38"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="53" t="str">
-        <f>IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
-        <v/>
-      </c>
-      <c r="E28" s="54" t="str">
-        <f>IF(COUNTA(E8:E27) = 0, "", COUNTA(E8:E27))</f>
-        <v/>
-      </c>
-      <c r="F28" s="54" t="str">
-        <f>IF(COUNTA(F8:F27) = 0, "", COUNTA(F8:F27))</f>
-        <v/>
-      </c>
-      <c r="G28" s="54" t="str">
-        <f>IF(COUNTA(G8:G27) = 0, "", COUNTA(G8:G27))</f>
-        <v/>
-      </c>
-      <c r="H28" s="54" t="str">
-        <f>IF(COUNTA(H8:H27) = 0, "", COUNTA(H8:H27))</f>
-        <v/>
-      </c>
-      <c r="I28" s="54" t="str">
-        <f>IF(COUNTA(I8:I27) = 0, "", COUNTA(I8:I27))</f>
-        <v/>
-      </c>
-      <c r="J28" s="54" t="str">
-        <f>IF(COUNTA(J8:J27) = 0, "", COUNTA(J8:J27))</f>
-        <v/>
-      </c>
-      <c r="K28" s="54" t="str">
-        <f>IF(COUNTA(K8:K27) = 0, "", COUNTA(K8:K27))</f>
-        <v/>
-      </c>
-      <c r="L28" s="54" t="str">
-        <f>IF(COUNTA(L8:L27) = 0, "", COUNTA(L8:L27))</f>
-        <v/>
-      </c>
-      <c r="M28" s="54" t="str">
-        <f>IF(COUNTA(M8:M27) = 0, "", COUNTA(M8:M27))</f>
-        <v/>
-      </c>
-      <c r="N28" s="54" t="str">
-        <f>IF(COUNTA(N8:N27) = 0, "", COUNTA(N8:N27))</f>
-        <v/>
-      </c>
-      <c r="O28" s="54" t="str">
-        <f>IF(COUNTA(O8:O27) = 0, "", COUNTA(O8:O27))</f>
-        <v/>
-      </c>
-      <c r="P28" s="54" t="str">
-        <f>IF(COUNTA(P8:P27) = 0, "", COUNTA(P8:P27))</f>
-        <v/>
-      </c>
-      <c r="Q28" s="54" t="str">
-        <f>IF(COUNTA(Q8:Q27) = 0, "", COUNTA(Q8:Q27))</f>
-        <v/>
-      </c>
-      <c r="R28" s="54" t="str">
-        <f>IF(COUNTA(R8:R27) = 0, "", COUNTA(R8:R27))</f>
-        <v/>
-      </c>
-      <c r="S28" s="54" t="str">
-        <f>IF(COUNTA(S8:S27) = 0, "", COUNTA(S8:S27))</f>
-        <v/>
-      </c>
-      <c r="T28" s="54" t="str">
-        <f>IF(COUNTA(T8:T27) = 0, "", COUNTA(T8:T27))</f>
-        <v/>
-      </c>
-      <c r="U28" s="54" t="str">
-        <f>IF(COUNTA(U8:U27) = 0, "", COUNTA(U8:U27))</f>
-        <v/>
-      </c>
-      <c r="V28" s="54" t="str">
-        <f>IF(COUNTA(V8:V27) = 0, "", COUNTA(V8:V27))</f>
-        <v/>
-      </c>
-      <c r="W28" s="54" t="str">
-        <f>IF(COUNTA(W8:W27) = 0, "", COUNTA(W8:W27))</f>
-        <v/>
-      </c>
-      <c r="X28" s="54" t="str">
-        <f>IF(COUNTA(X8:X27) = 0, "", COUNTA(X8:X27))</f>
-        <v/>
-      </c>
-      <c r="Y28" s="54" t="str">
-        <f>IF(COUNTA(Y8:Y27) = 0, "", COUNTA(Y8:Y27))</f>
-        <v/>
-      </c>
-      <c r="Z28" s="54" t="str">
-        <f>IF(COUNTA(Z8:Z27) = 0, "", COUNTA(Z8:Z27))</f>
-        <v/>
-      </c>
-      <c r="AA28" s="54" t="str">
-        <f>IF(COUNTA(AA8:AA27) = 0, "", COUNTA(AA8:AA27))</f>
-        <v/>
-      </c>
-      <c r="AB28" s="54" t="str">
-        <f>IF(COUNTA(AB8:AB27) = 0, "", COUNTA(AB8:AB27))</f>
-        <v/>
-      </c>
-      <c r="AC28" s="54" t="str">
-        <f>IF(COUNTA(AC8:AC27) = 0, "", COUNTA(AC8:AC27))</f>
-        <v/>
-      </c>
-      <c r="AD28" s="54" t="str">
-        <f>IF(COUNTA(AD8:AD27) = 0, "", COUNTA(AD8:AD27))</f>
-        <v/>
-      </c>
-      <c r="AE28" s="54" t="str">
-        <f>IF(COUNTA(AE8:AE27) = 0, "", COUNTA(AE8:AE27))</f>
-        <v/>
-      </c>
-      <c r="AF28" s="54" t="str">
-        <f>IF(COUNTA(AF8:AF27) = 0, "", COUNTA(AF8:AF27))</f>
-        <v/>
-      </c>
-      <c r="AG28" s="54" t="str">
-        <f>IF(COUNTA(AG8:AG27) = 0, "", COUNTA(AG8:AG27))</f>
-        <v/>
-      </c>
-      <c r="AH28" s="54" t="str">
-        <f>IF(COUNTA(AH8:AH27) = 0, "", COUNTA(AH8:AH27))</f>
-        <v/>
-      </c>
-      <c r="AI28" s="59">
+      <c r="C28" s="52"/>
+      <c r="D28" s="40" t="str">
+        <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
+        <v/>
+      </c>
+      <c r="E28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M28" s="41">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="62"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.35">
@@ -3249,6 +3108,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D29:AH29"/>
@@ -3259,26 +3124,20 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:AH7">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>OR(WEEKDAY(D$7,1)=1,WEEKDAY(D$7,1)=7,WEEKDAY(D$7,1)=3,WEEKDAY(D$7,1)=5 )</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:AH27">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>OR(WEEKDAY(D$7)=1,WEEKDAY(D$7)=7, WEEKDAY(D$7,1)=3, WEEKDAY(D$7,1)=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3302,7 +3161,7 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
@@ -3317,87 +3176,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="65" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
     </row>
     <row r="2" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="67" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="45" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="67" t="s">
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -3411,85 +3270,85 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="45" t="s">
+      <c r="Z3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="68">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="61">
         <v>2017</v>
       </c>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="55" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Sa</v>
@@ -3614,7 +3473,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>M</v>
       </c>
-      <c r="AI6" s="56"/>
+      <c r="AI6" s="49"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -3749,7 +3608,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42947</v>
       </c>
-      <c r="AI7" s="57"/>
+      <c r="AI7" s="50"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3794,7 +3653,7 @@
       <c r="AF8" s="22"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="23"/>
-      <c r="AI8" s="58">
+      <c r="AI8" s="42">
         <f>IF(C8="","", COUNTA(D8:AH8))</f>
         <v>2</v>
       </c>
@@ -3844,7 +3703,7 @@
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
       <c r="AH9" s="23"/>
-      <c r="AI9" s="58">
+      <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
         <v>3</v>
       </c>
@@ -3894,7 +3753,7 @@
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="23"/>
-      <c r="AI10" s="58">
+      <c r="AI10" s="42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3940,7 +3799,7 @@
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="23"/>
-      <c r="AI11" s="58">
+      <c r="AI11" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3982,7 +3841,7 @@
       <c r="AF12" s="22"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="23"/>
-      <c r="AI12" s="58" t="str">
+      <c r="AI12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4024,7 +3883,7 @@
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
       <c r="AH13" s="23"/>
-      <c r="AI13" s="58" t="str">
+      <c r="AI13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4066,7 +3925,7 @@
       <c r="AF14" s="22"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="23"/>
-      <c r="AI14" s="58" t="str">
+      <c r="AI14" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4108,7 +3967,7 @@
       <c r="AF15" s="22"/>
       <c r="AG15" s="22"/>
       <c r="AH15" s="23"/>
-      <c r="AI15" s="58" t="str">
+      <c r="AI15" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4150,7 +4009,7 @@
       <c r="AF16" s="22"/>
       <c r="AG16" s="22"/>
       <c r="AH16" s="23"/>
-      <c r="AI16" s="58" t="str">
+      <c r="AI16" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4192,7 +4051,7 @@
       <c r="AF17" s="22"/>
       <c r="AG17" s="22"/>
       <c r="AH17" s="23"/>
-      <c r="AI17" s="58" t="str">
+      <c r="AI17" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4234,7 +4093,7 @@
       <c r="AF18" s="22"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="23"/>
-      <c r="AI18" s="58" t="str">
+      <c r="AI18" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4276,7 +4135,7 @@
       <c r="AF19" s="22"/>
       <c r="AG19" s="22"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="58" t="str">
+      <c r="AI19" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4318,7 +4177,7 @@
       <c r="AF20" s="22"/>
       <c r="AG20" s="22"/>
       <c r="AH20" s="23"/>
-      <c r="AI20" s="58" t="str">
+      <c r="AI20" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4360,7 +4219,7 @@
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="23"/>
-      <c r="AI21" s="58" t="str">
+      <c r="AI21" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4402,7 +4261,7 @@
       <c r="AF22" s="22"/>
       <c r="AG22" s="22"/>
       <c r="AH22" s="23"/>
-      <c r="AI22" s="58" t="str">
+      <c r="AI22" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4444,7 +4303,7 @@
       <c r="AF23" s="22"/>
       <c r="AG23" s="22"/>
       <c r="AH23" s="23"/>
-      <c r="AI23" s="58" t="str">
+      <c r="AI23" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4486,7 +4345,7 @@
       <c r="AF24" s="22"/>
       <c r="AG24" s="22"/>
       <c r="AH24" s="23"/>
-      <c r="AI24" s="58" t="str">
+      <c r="AI24" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4528,7 +4387,7 @@
       <c r="AF25" s="22"/>
       <c r="AG25" s="22"/>
       <c r="AH25" s="23"/>
-      <c r="AI25" s="58" t="str">
+      <c r="AI25" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4570,7 +4429,7 @@
       <c r="AF26" s="22"/>
       <c r="AG26" s="22"/>
       <c r="AH26" s="23"/>
-      <c r="AI26" s="58" t="str">
+      <c r="AI26" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4581,173 +4440,173 @@
         <v>20</v>
       </c>
       <c r="C27" s="28"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="58" t="str">
+      <c r="D27" s="38"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="53" t="str">
-        <f>IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
-        <v/>
-      </c>
-      <c r="E28" s="54" t="str">
-        <f>IF(COUNTA(E8:E27) = 0, "", COUNTA(E8:E27))</f>
-        <v/>
-      </c>
-      <c r="F28" s="54" t="str">
-        <f>IF(COUNTA(F8:F27) = 0, "", COUNTA(F8:F27))</f>
-        <v/>
-      </c>
-      <c r="G28" s="54" t="str">
-        <f>IF(COUNTA(G8:G27) = 0, "", COUNTA(G8:G27))</f>
-        <v/>
-      </c>
-      <c r="H28" s="54" t="str">
-        <f>IF(COUNTA(H8:H27) = 0, "", COUNTA(H8:H27))</f>
-        <v/>
-      </c>
-      <c r="I28" s="54" t="str">
-        <f>IF(COUNTA(I8:I27) = 0, "", COUNTA(I8:I27))</f>
-        <v/>
-      </c>
-      <c r="J28" s="54" t="str">
-        <f>IF(COUNTA(J8:J27) = 0, "", COUNTA(J8:J27))</f>
-        <v/>
-      </c>
-      <c r="K28" s="54" t="str">
-        <f>IF(COUNTA(K8:K27) = 0, "", COUNTA(K8:K27))</f>
-        <v/>
-      </c>
-      <c r="L28" s="54" t="str">
-        <f>IF(COUNTA(L8:L27) = 0, "", COUNTA(L8:L27))</f>
-        <v/>
-      </c>
-      <c r="M28" s="54" t="str">
-        <f>IF(COUNTA(M8:M27) = 0, "", COUNTA(M8:M27))</f>
-        <v/>
-      </c>
-      <c r="N28" s="54">
-        <f>IF(COUNTA(N8:N27) = 0, "", COUNTA(N8:N27))</f>
+      <c r="C28" s="52"/>
+      <c r="D28" s="40" t="str">
+        <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
+        <v/>
+      </c>
+      <c r="E28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N28" s="41">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O28" s="54">
-        <f>IF(COUNTA(O8:O27) = 0, "", COUNTA(O8:O27))</f>
+      <c r="O28" s="41">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="P28" s="54">
-        <f>IF(COUNTA(P8:P27) = 0, "", COUNTA(P8:P27))</f>
+      <c r="P28" s="41">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q28" s="54" t="str">
-        <f>IF(COUNTA(Q8:Q27) = 0, "", COUNTA(Q8:Q27))</f>
-        <v/>
-      </c>
-      <c r="R28" s="54" t="str">
-        <f>IF(COUNTA(R8:R27) = 0, "", COUNTA(R8:R27))</f>
-        <v/>
-      </c>
-      <c r="S28" s="54" t="str">
-        <f>IF(COUNTA(S8:S27) = 0, "", COUNTA(S8:S27))</f>
-        <v/>
-      </c>
-      <c r="T28" s="54" t="str">
-        <f>IF(COUNTA(T8:T27) = 0, "", COUNTA(T8:T27))</f>
-        <v/>
-      </c>
-      <c r="U28" s="54" t="str">
-        <f>IF(COUNTA(U8:U27) = 0, "", COUNTA(U8:U27))</f>
-        <v/>
-      </c>
-      <c r="V28" s="54" t="str">
-        <f>IF(COUNTA(V8:V27) = 0, "", COUNTA(V8:V27))</f>
-        <v/>
-      </c>
-      <c r="W28" s="54" t="str">
-        <f>IF(COUNTA(W8:W27) = 0, "", COUNTA(W8:W27))</f>
-        <v/>
-      </c>
-      <c r="X28" s="54" t="str">
-        <f>IF(COUNTA(X8:X27) = 0, "", COUNTA(X8:X27))</f>
-        <v/>
-      </c>
-      <c r="Y28" s="54" t="str">
-        <f>IF(COUNTA(Y8:Y27) = 0, "", COUNTA(Y8:Y27))</f>
-        <v/>
-      </c>
-      <c r="Z28" s="54" t="str">
-        <f>IF(COUNTA(Z8:Z27) = 0, "", COUNTA(Z8:Z27))</f>
-        <v/>
-      </c>
-      <c r="AA28" s="54" t="str">
-        <f>IF(COUNTA(AA8:AA27) = 0, "", COUNTA(AA8:AA27))</f>
-        <v/>
-      </c>
-      <c r="AB28" s="54" t="str">
-        <f>IF(COUNTA(AB8:AB27) = 0, "", COUNTA(AB8:AB27))</f>
-        <v/>
-      </c>
-      <c r="AC28" s="54" t="str">
-        <f>IF(COUNTA(AC8:AC27) = 0, "", COUNTA(AC8:AC27))</f>
-        <v/>
-      </c>
-      <c r="AD28" s="54" t="str">
-        <f>IF(COUNTA(AD8:AD27) = 0, "", COUNTA(AD8:AD27))</f>
-        <v/>
-      </c>
-      <c r="AE28" s="54" t="str">
-        <f>IF(COUNTA(AE8:AE27) = 0, "", COUNTA(AE8:AE27))</f>
-        <v/>
-      </c>
-      <c r="AF28" s="54" t="str">
-        <f>IF(COUNTA(AF8:AF27) = 0, "", COUNTA(AF8:AF27))</f>
-        <v/>
-      </c>
-      <c r="AG28" s="54" t="str">
-        <f>IF(COUNTA(AG8:AG27) = 0, "", COUNTA(AG8:AG27))</f>
-        <v/>
-      </c>
-      <c r="AH28" s="54" t="str">
-        <f>IF(COUNTA(AH8:AH27) = 0, "", COUNTA(AH8:AH27))</f>
-        <v/>
-      </c>
-      <c r="AI28" s="59">
+      <c r="Q28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH28" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
         <v>9</v>
       </c>
@@ -4755,40 +4614,40 @@
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="62"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.35">
@@ -4866,6 +4725,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="D29:AH29"/>
     <mergeCell ref="B28:C28"/>
@@ -4873,30 +4739,23 @@
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AC2:AH2"/>
     <mergeCell ref="AC3:AH3"/>
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J2:M2"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D7:AH7">
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>OR(WEEKDAY(D$7,1)=1,WEEKDAY(D$7,1)=7,WEEKDAY(D$7,1)=2, WEEKDAY(D$7,1)=6)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:AH27">
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>OR(WEEKDAY(D$7)=1,WEEKDAY(D$7)=7, WEEKDAY(D$7,1)=2, WEEKDAY(D$7,1)=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Executive_English_Now/class-attendance-monthly.xlsx
+++ b/Executive_English_Now/class-attendance-monthly.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>Teacher</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Felipe Darrigrande</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -817,47 +820,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -876,13 +886,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1553,7 +1556,7 @@
   <dimension ref="B1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -1573,28 +1576,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -1608,46 +1611,46 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="59" t="s">
+      <c r="Z2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="56" t="s">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -1661,85 +1664,85 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
+      <c r="J3" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="59" t="s">
+      <c r="Z3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61">
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="63">
         <v>2017</v>
       </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="48" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Sa</v>
@@ -1864,7 +1867,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>M</v>
       </c>
-      <c r="AI6" s="49"/>
+      <c r="AI6" s="55"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -1999,7 +2002,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42947</v>
       </c>
-      <c r="AI7" s="50"/>
+      <c r="AI7" s="56"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2861,10 +2864,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="40" t="str">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v/>
@@ -2997,39 +3000,39 @@
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="55"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="61"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -3108,12 +3111,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D29:AH29"/>
@@ -3124,6 +3121,12 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:AH7">
     <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
@@ -3162,7 +3165,7 @@
   <dimension ref="B1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL28" sqref="AL28"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3182,28 +3185,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -3217,46 +3220,46 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="59" t="s">
+      <c r="Z2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="56" t="s">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -3270,85 +3273,85 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="59" t="s">
+      <c r="Z3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61">
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="63">
         <v>2017</v>
       </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="48" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Sa</v>
@@ -3473,7 +3476,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>M</v>
       </c>
-      <c r="AI6" s="49"/>
+      <c r="AI6" s="55"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -3608,7 +3611,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42947</v>
       </c>
-      <c r="AI7" s="50"/>
+      <c r="AI7" s="56"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3689,9 +3692,13 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
+      <c r="U9" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
+      <c r="W9" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="X9" s="22"/>
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
@@ -3705,7 +3712,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ9" s="5"/>
     </row>
@@ -3739,8 +3746,12 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
+      <c r="U10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="W10" s="22"/>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -3755,7 +3766,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ10" s="5"/>
     </row>
@@ -3809,7 +3820,9 @@
       <c r="B12" s="35">
         <v>5</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -3827,7 +3840,9 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
+      <c r="U12" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
       <c r="X12" s="22"/>
@@ -3841,9 +3856,9 @@
       <c r="AF12" s="22"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="23"/>
-      <c r="AI12" s="42" t="str">
+      <c r="AI12" s="42">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AJ12" s="5"/>
     </row>
@@ -4478,10 +4493,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="40" t="str">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v/>
@@ -4550,17 +4565,17 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="U28" s="41">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="V28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="X28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -4608,45 +4623,45 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="55"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="61"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -4725,13 +4740,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="D29:AH29"/>
     <mergeCell ref="B28:C28"/>
@@ -4741,6 +4749,13 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D7:AH7">

--- a/Executive_English_Now/class-attendance-monthly.xlsx
+++ b/Executive_English_Now/class-attendance-monthly.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>Teacher</t>
   </si>
@@ -820,72 +820,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1556,7 +1556,7 @@
   <dimension ref="B1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -1576,28 +1576,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -1611,46 +1611,46 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="51" t="s">
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -1664,85 +1664,85 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="63">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="61">
         <v>2017</v>
       </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="68" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="54" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Sa</v>
@@ -1867,7 +1867,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>M</v>
       </c>
-      <c r="AI6" s="55"/>
+      <c r="AI6" s="49"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -2002,7 +2002,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42947</v>
       </c>
-      <c r="AI7" s="56"/>
+      <c r="AI7" s="50"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2039,7 +2039,9 @@
       <c r="X8" s="22"/>
       <c r="Y8" s="22"/>
       <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
+      <c r="AA8" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="AB8" s="22"/>
       <c r="AC8" s="22"/>
       <c r="AD8" s="22"/>
@@ -2049,7 +2051,7 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="42">
         <f>IF(C8="","", COUNTA(D8:AH8))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" s="5"/>
     </row>
@@ -2132,10 +2134,14 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
+      <c r="X10" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
+      <c r="AA10" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="AB10" s="22"/>
       <c r="AC10" s="22"/>
       <c r="AD10" s="22"/>
@@ -2145,7 +2151,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ10" s="5"/>
     </row>
@@ -2864,10 +2870,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="40" t="str">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v/>
@@ -2948,9 +2954,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="X28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Y28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -2960,9 +2966,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AA28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="AA28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AB28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -2994,45 +3000,45 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="61"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="55"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -3111,6 +3117,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D29:AH29"/>
@@ -3121,12 +3133,6 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:AH7">
     <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
@@ -3185,28 +3191,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -3220,46 +3226,46 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="51" t="s">
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -3273,85 +3279,85 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="63">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="61">
         <v>2017</v>
       </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="68" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="54" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>Sa</v>
@@ -3476,7 +3482,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v>M</v>
       </c>
-      <c r="AI6" s="55"/>
+      <c r="AI6" s="49"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -3611,7 +3617,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v>42947</v>
       </c>
-      <c r="AI7" s="56"/>
+      <c r="AI7" s="50"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4493,10 +4499,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="40" t="str">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v/>
@@ -4629,39 +4635,39 @@
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="61"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="55"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -4740,6 +4746,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="D29:AH29"/>
     <mergeCell ref="B28:C28"/>
@@ -4749,13 +4762,6 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D7:AH7">
